--- a/src/main/resources/123-madao_service/service-api_structure.xlsx
+++ b/src/main/resources/123-madao_service/service-api_structure.xlsx
@@ -196,10 +196,10 @@
     <t>com.netflix.hystrix.strategy.concurrency.HystrixRequestVariable</t>
   </si>
   <si>
-    <t>logCurrentStateOfHystrixPlugins(com.netflix.hystrix.strategy.eventnotifier.HystrixEventNotifier)</t>
-  </si>
-  <si>
-    <t>getThreadPool(com.netflix.hystrix.HystrixThreadPoolKey)</t>
+    <t>logCurrentStateOfHystrixPlugins(com.netflix.hystrix.strategy.eventnotifier.HystrixEventNotifier,com.netflix.hystrix.strategy.metrics.HystrixMetricsPublisher,com.netflix.hystrix.strategy.properties.HystrixPropertiesStrategy)</t>
+  </si>
+  <si>
+    <t>getThreadPool(com.netflix.hystrix.HystrixThreadPoolKey,com.netflix.hystrix.strategy.properties.HystrixProperty,com.netflix.hystrix.strategy.properties.HystrixProperty,com.netflix.hystrix.strategy.properties.HystrixProperty,java.util.concurrent.TimeUnit,java.util.concurrent.BlockingQueue)</t>
   </si>
   <si>
     <t>java.util.concurrent.ThreadPoolExecutor</t>
